--- a/OUTPUT Default/Combined File.xlsx
+++ b/OUTPUT Default/Combined File.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3561" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3561" uniqueCount="730">
   <si>
     <t>EMPLID</t>
   </si>
@@ -1327,6 +1327,21 @@
     <t>5/27/2023 19:20</t>
   </si>
   <si>
+    <t>5/21/2023 08:10</t>
+  </si>
+  <si>
+    <t>5/22/2023 07:58</t>
+  </si>
+  <si>
+    <t>5/23/2023 08:01</t>
+  </si>
+  <si>
+    <t>5/25/2023 07:42</t>
+  </si>
+  <si>
+    <t>5/25/2023 07:28</t>
+  </si>
+  <si>
     <t>5/21/2023 19:34</t>
   </si>
   <si>
@@ -1337,6 +1352,12 @@
   </si>
   <si>
     <t>5/27/2023 19:27</t>
+  </si>
+  <si>
+    <t>5/21/2023 07:36</t>
+  </si>
+  <si>
+    <t>5/27/2023 07:28</t>
   </si>
   <si>
     <t>5/22/2023 19:35</t>
@@ -2625,13 +2646,13 @@
         <v>327</v>
       </c>
       <c r="J2" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="R2" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S2" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2654,13 +2675,13 @@
         <v>328</v>
       </c>
       <c r="J3" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="R3" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S3" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2683,13 +2704,13 @@
         <v>329</v>
       </c>
       <c r="J4" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="R4" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S4" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2712,13 +2733,13 @@
         <v>330</v>
       </c>
       <c r="J5" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="R5" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S5" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2741,13 +2762,13 @@
         <v>331</v>
       </c>
       <c r="J6" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="R6" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S6" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -2770,13 +2791,13 @@
         <v>332</v>
       </c>
       <c r="J7" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="R7" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="S7" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -2799,13 +2820,13 @@
         <v>333</v>
       </c>
       <c r="J8" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="R8" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="S8" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -2828,13 +2849,13 @@
         <v>334</v>
       </c>
       <c r="J9" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="R9" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="S9" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -2857,13 +2878,13 @@
         <v>128</v>
       </c>
       <c r="J10" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="R10" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="S10" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -2886,13 +2907,13 @@
         <v>335</v>
       </c>
       <c r="J11" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="R11" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="S11" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -2915,13 +2936,13 @@
         <v>336</v>
       </c>
       <c r="J12" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="R12" t="s">
         <v>113</v>
       </c>
       <c r="S12" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -2944,13 +2965,13 @@
         <v>131</v>
       </c>
       <c r="J13" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="R13" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="S13" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -2973,13 +2994,13 @@
         <v>337</v>
       </c>
       <c r="J14" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="R14" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="S14" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -3002,13 +3023,13 @@
         <v>133</v>
       </c>
       <c r="J15" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="R15" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="S15" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -3031,13 +3052,13 @@
         <v>338</v>
       </c>
       <c r="J16" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="R16" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="S16" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
     </row>
     <row r="17" spans="2:19">
@@ -3060,13 +3081,13 @@
         <v>339</v>
       </c>
       <c r="J17" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="R17" t="s">
         <v>114</v>
       </c>
       <c r="S17" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="18" spans="2:19">
@@ -3089,10 +3110,10 @@
         <v>128</v>
       </c>
       <c r="J18" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="S18" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="19" spans="2:19">
@@ -3115,13 +3136,13 @@
         <v>340</v>
       </c>
       <c r="J19" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="R19" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S19" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="20" spans="2:19">
@@ -3144,10 +3165,10 @@
         <v>136</v>
       </c>
       <c r="J20" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="S20" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="21" spans="2:19">
@@ -3170,13 +3191,13 @@
         <v>341</v>
       </c>
       <c r="J21" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="R21" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S21" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="22" spans="2:19">
@@ -3199,13 +3220,13 @@
         <v>342</v>
       </c>
       <c r="J22" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="R22" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="S22" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="23" spans="2:19">
@@ -3228,10 +3249,10 @@
         <v>145</v>
       </c>
       <c r="J23" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="S23" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
     </row>
     <row r="24" spans="2:19">
@@ -3254,13 +3275,13 @@
         <v>343</v>
       </c>
       <c r="J24" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="R24" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="S24" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
     </row>
     <row r="25" spans="2:19">
@@ -3283,10 +3304,10 @@
         <v>128</v>
       </c>
       <c r="J25" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="S25" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
     </row>
     <row r="26" spans="2:19">
@@ -3309,13 +3330,13 @@
         <v>157</v>
       </c>
       <c r="J26" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="R26" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="S26" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
     </row>
     <row r="27" spans="2:19">
@@ -3338,13 +3359,13 @@
         <v>136</v>
       </c>
       <c r="J27" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="R27" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="S27" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
     </row>
     <row r="28" spans="2:19">
@@ -3367,13 +3388,13 @@
         <v>344</v>
       </c>
       <c r="J28" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="R28" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S28" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
     </row>
     <row r="29" spans="2:19">
@@ -3396,13 +3417,13 @@
         <v>345</v>
       </c>
       <c r="J29" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="R29" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S29" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
     </row>
     <row r="30" spans="2:19">
@@ -3425,13 +3446,13 @@
         <v>346</v>
       </c>
       <c r="J30" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="R30" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S30" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
     </row>
     <row r="31" spans="2:19">
@@ -3454,13 +3475,13 @@
         <v>347</v>
       </c>
       <c r="J31" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="R31" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="S31" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
     </row>
     <row r="32" spans="2:19">
@@ -3483,13 +3504,13 @@
         <v>128</v>
       </c>
       <c r="J32" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="R32" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="S32" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
     </row>
     <row r="33" spans="2:19">
@@ -3512,13 +3533,13 @@
         <v>348</v>
       </c>
       <c r="J33" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="R33" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="S33" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
     </row>
     <row r="34" spans="2:19">
@@ -3541,13 +3562,13 @@
         <v>136</v>
       </c>
       <c r="J34" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="R34" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="S34" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
     </row>
     <row r="35" spans="2:19">
@@ -3570,13 +3591,13 @@
         <v>349</v>
       </c>
       <c r="J35" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="R35" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="S35" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
     </row>
     <row r="36" spans="2:19">
@@ -3599,13 +3620,13 @@
         <v>131</v>
       </c>
       <c r="J36" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="R36" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="S36" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
     </row>
     <row r="37" spans="2:19">
@@ -3628,13 +3649,13 @@
         <v>350</v>
       </c>
       <c r="J37" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="R37" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="S37" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
     </row>
     <row r="38" spans="2:19">
@@ -3657,13 +3678,13 @@
         <v>150</v>
       </c>
       <c r="J38" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="R38" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="S38" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
     </row>
     <row r="39" spans="2:19">
@@ -3686,13 +3707,13 @@
         <v>351</v>
       </c>
       <c r="J39" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="R39" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="S39" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
     </row>
     <row r="40" spans="2:19">
@@ -3715,13 +3736,13 @@
         <v>339</v>
       </c>
       <c r="J40" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="R40" t="s">
         <v>114</v>
       </c>
       <c r="S40" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
     </row>
     <row r="41" spans="2:19">
@@ -3744,10 +3765,10 @@
         <v>128</v>
       </c>
       <c r="J41" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="S41" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
     </row>
     <row r="42" spans="2:19">
@@ -3770,13 +3791,13 @@
         <v>352</v>
       </c>
       <c r="J42" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="R42" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S42" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
     </row>
     <row r="43" spans="2:19">
@@ -3799,10 +3820,10 @@
         <v>150</v>
       </c>
       <c r="J43" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="S43" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
     </row>
     <row r="44" spans="2:19">
@@ -3825,13 +3846,13 @@
         <v>353</v>
       </c>
       <c r="J44" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="R44" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S44" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
     </row>
     <row r="45" spans="2:19">
@@ -3854,10 +3875,10 @@
         <v>133</v>
       </c>
       <c r="J45" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="S45" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
     </row>
     <row r="46" spans="2:19">
@@ -3880,13 +3901,13 @@
         <v>354</v>
       </c>
       <c r="J46" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="R46" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S46" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
     </row>
     <row r="47" spans="2:19">
@@ -3909,13 +3930,13 @@
         <v>155</v>
       </c>
       <c r="J47" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="R47" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="S47" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
     </row>
     <row r="48" spans="2:19">
@@ -3938,13 +3959,13 @@
         <v>355</v>
       </c>
       <c r="J48" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="R48" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="S48" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
     </row>
     <row r="49" spans="2:19">
@@ -3967,10 +3988,10 @@
         <v>356</v>
       </c>
       <c r="J49" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="S49" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
     </row>
     <row r="50" spans="2:19">
@@ -3993,13 +4014,13 @@
         <v>357</v>
       </c>
       <c r="J50" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="R50" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="S50" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
     </row>
     <row r="51" spans="2:19">
@@ -4022,13 +4043,13 @@
         <v>133</v>
       </c>
       <c r="J51" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="R51" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="S51" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
     </row>
     <row r="52" spans="2:19">
@@ -4051,13 +4072,13 @@
         <v>358</v>
       </c>
       <c r="J52" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="R52" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="S52" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
     </row>
     <row r="53" spans="2:19">
@@ -4080,13 +4101,13 @@
         <v>359</v>
       </c>
       <c r="J53" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="R53" t="s">
         <v>115</v>
       </c>
       <c r="S53" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
     </row>
     <row r="54" spans="2:19">
@@ -4109,13 +4130,13 @@
         <v>356</v>
       </c>
       <c r="J54" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="R54" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="S54" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
     </row>
     <row r="55" spans="2:19">
@@ -4138,13 +4159,13 @@
         <v>360</v>
       </c>
       <c r="J55" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="R55" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="S55" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="56" spans="2:19">
@@ -4167,13 +4188,13 @@
         <v>348</v>
       </c>
       <c r="J56" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="R56" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="S56" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="57" spans="2:19">
@@ -4196,10 +4217,10 @@
         <v>136</v>
       </c>
       <c r="J57" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="S57" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="58" spans="2:19">
@@ -4222,13 +4243,13 @@
         <v>361</v>
       </c>
       <c r="J58" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="R58" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="S58" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="59" spans="2:19">
@@ -4251,13 +4272,13 @@
         <v>362</v>
       </c>
       <c r="J59" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="R59" t="s">
         <v>114</v>
       </c>
       <c r="S59" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="60" spans="2:19">
@@ -4280,13 +4301,13 @@
         <v>363</v>
       </c>
       <c r="J60" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="R60" t="s">
         <v>114</v>
       </c>
       <c r="S60" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="61" spans="2:19">
@@ -4309,13 +4330,13 @@
         <v>364</v>
       </c>
       <c r="J61" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="R61" t="s">
         <v>114</v>
       </c>
       <c r="S61" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="62" spans="2:19">
@@ -4338,13 +4359,13 @@
         <v>359</v>
       </c>
       <c r="J62" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="R62" t="s">
         <v>114</v>
       </c>
       <c r="S62" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="63" spans="2:19">
@@ -4367,13 +4388,13 @@
         <v>339</v>
       </c>
       <c r="J63" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="R63" t="s">
         <v>114</v>
       </c>
       <c r="S63" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="64" spans="2:19">
@@ -4396,13 +4417,13 @@
         <v>336</v>
       </c>
       <c r="J64" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="R64" t="s">
         <v>114</v>
       </c>
       <c r="S64" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="65" spans="2:19">
@@ -4425,13 +4446,13 @@
         <v>365</v>
       </c>
       <c r="J65" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="R65" t="s">
         <v>114</v>
       </c>
       <c r="S65" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="66" spans="2:19">
@@ -4454,13 +4475,13 @@
         <v>362</v>
       </c>
       <c r="J66" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="R66" t="s">
         <v>114</v>
       </c>
       <c r="S66" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="67" spans="2:19">
@@ -4483,13 +4504,13 @@
         <v>150</v>
       </c>
       <c r="J67" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="R67" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="S67" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="68" spans="2:19">
@@ -4512,13 +4533,13 @@
         <v>366</v>
       </c>
       <c r="J68" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="R68" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S68" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="69" spans="2:19">
@@ -4541,13 +4562,13 @@
         <v>133</v>
       </c>
       <c r="J69" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="R69" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="S69" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="70" spans="2:19">
@@ -4570,13 +4591,13 @@
         <v>367</v>
       </c>
       <c r="J70" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="R70" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S70" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="71" spans="2:19">
@@ -4599,10 +4620,10 @@
         <v>155</v>
       </c>
       <c r="J71" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="S71" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="72" spans="2:19">
@@ -4625,13 +4646,13 @@
         <v>368</v>
       </c>
       <c r="J72" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="R72" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="S72" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="73" spans="2:19">
@@ -4654,13 +4675,13 @@
         <v>136</v>
       </c>
       <c r="J73" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="R73" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="S73" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
     </row>
     <row r="74" spans="2:19">
@@ -4683,13 +4704,13 @@
         <v>369</v>
       </c>
       <c r="J74" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="R74" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S74" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
     </row>
     <row r="75" spans="2:19">
@@ -4712,13 +4733,13 @@
         <v>131</v>
       </c>
       <c r="J75" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="R75" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="S75" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
     </row>
     <row r="76" spans="2:19">
@@ -4741,13 +4762,13 @@
         <v>370</v>
       </c>
       <c r="J76" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="R76" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="S76" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
     </row>
     <row r="77" spans="2:19">
@@ -4770,13 +4791,13 @@
         <v>150</v>
       </c>
       <c r="J77" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="R77" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="S77" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
     </row>
     <row r="78" spans="2:19">
@@ -4799,13 +4820,13 @@
         <v>371</v>
       </c>
       <c r="J78" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="R78" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="S78" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
     </row>
     <row r="79" spans="2:19">
@@ -4828,13 +4849,13 @@
         <v>364</v>
       </c>
       <c r="J79" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="R79" t="s">
         <v>116</v>
       </c>
       <c r="S79" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
     </row>
     <row r="80" spans="2:19">
@@ -4857,13 +4878,13 @@
         <v>372</v>
       </c>
       <c r="J80" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="R80" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="S80" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
     </row>
     <row r="81" spans="2:19">
@@ -4886,13 +4907,13 @@
         <v>373</v>
       </c>
       <c r="J81" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="R81" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="S81" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
     </row>
     <row r="82" spans="2:19">
@@ -4915,13 +4936,13 @@
         <v>374</v>
       </c>
       <c r="J82" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="R82" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="S82" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
     </row>
     <row r="83" spans="2:19">
@@ -4944,13 +4965,13 @@
         <v>375</v>
       </c>
       <c r="J83" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="R83" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="S83" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
     </row>
     <row r="84" spans="2:19">
@@ -4973,13 +4994,13 @@
         <v>376</v>
       </c>
       <c r="J84" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="R84" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="S84" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
     </row>
     <row r="85" spans="2:19">
@@ -5002,10 +5023,10 @@
         <v>128</v>
       </c>
       <c r="J85" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="S85" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="86" spans="2:19">
@@ -5028,13 +5049,13 @@
         <v>377</v>
       </c>
       <c r="J86" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="R86" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S86" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="87" spans="2:19">
@@ -5057,10 +5078,10 @@
         <v>131</v>
       </c>
       <c r="J87" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="S87" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="88" spans="2:19">
@@ -5083,13 +5104,13 @@
         <v>378</v>
       </c>
       <c r="J88" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="R88" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S88" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="89" spans="2:19">
@@ -5112,10 +5133,10 @@
         <v>155</v>
       </c>
       <c r="J89" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="S89" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="90" spans="2:19">
@@ -5138,13 +5159,13 @@
         <v>379</v>
       </c>
       <c r="J90" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="R90" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="S90" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="91" spans="2:19">
@@ -5167,10 +5188,10 @@
         <v>356</v>
       </c>
       <c r="J91" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="S91" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="92" spans="2:19">
@@ -5193,13 +5214,13 @@
         <v>380</v>
       </c>
       <c r="J92" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="R92" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S92" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
     </row>
     <row r="93" spans="2:19">
@@ -5222,13 +5243,13 @@
         <v>381</v>
       </c>
       <c r="J93" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="R93" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S93" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
     </row>
     <row r="94" spans="2:19">
@@ -5251,13 +5272,13 @@
         <v>382</v>
       </c>
       <c r="J94" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="R94" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S94" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
     </row>
     <row r="95" spans="2:19">
@@ -5280,13 +5301,13 @@
         <v>383</v>
       </c>
       <c r="J95" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="R95" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S95" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
     </row>
     <row r="96" spans="2:19">
@@ -5309,13 +5330,13 @@
         <v>384</v>
       </c>
       <c r="J96" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="R96" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="S96" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
     </row>
     <row r="97" spans="2:19">
@@ -5338,13 +5359,13 @@
         <v>385</v>
       </c>
       <c r="J97" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="R97" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="S97" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
     </row>
     <row r="98" spans="2:19">
@@ -5367,13 +5388,13 @@
         <v>386</v>
       </c>
       <c r="J98" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="R98" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="S98" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
     </row>
     <row r="99" spans="2:19">
@@ -5396,13 +5417,13 @@
         <v>136</v>
       </c>
       <c r="J99" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="R99" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="S99" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
     </row>
     <row r="100" spans="2:19">
@@ -5425,13 +5446,13 @@
         <v>362</v>
       </c>
       <c r="J100" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="R100" t="s">
         <v>114</v>
       </c>
       <c r="S100" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
     </row>
     <row r="101" spans="2:19">
@@ -5454,13 +5475,13 @@
         <v>387</v>
       </c>
       <c r="J101" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="R101" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="S101" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
     </row>
     <row r="102" spans="2:19">
@@ -5483,13 +5504,13 @@
         <v>363</v>
       </c>
       <c r="J102" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="R102" t="s">
         <v>114</v>
       </c>
       <c r="S102" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
     </row>
     <row r="103" spans="2:19">
@@ -5512,13 +5533,13 @@
         <v>364</v>
       </c>
       <c r="J103" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="R103" t="s">
         <v>114</v>
       </c>
       <c r="S103" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
     </row>
     <row r="104" spans="2:19">
@@ -5541,13 +5562,13 @@
         <v>359</v>
       </c>
       <c r="J104" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="R104" t="s">
         <v>114</v>
       </c>
       <c r="S104" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
     </row>
     <row r="105" spans="2:19">
@@ -5570,13 +5591,13 @@
         <v>388</v>
       </c>
       <c r="J105" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="R105" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="S105" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
     </row>
     <row r="106" spans="2:19">
@@ -5599,13 +5620,13 @@
         <v>389</v>
       </c>
       <c r="J106" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="R106" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="S106" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
     </row>
     <row r="107" spans="2:19">
@@ -5628,10 +5649,10 @@
         <v>390</v>
       </c>
       <c r="J107" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="S107" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
     </row>
     <row r="108" spans="2:19">
@@ -5654,10 +5675,10 @@
         <v>128</v>
       </c>
       <c r="J108" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="S108" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
     </row>
     <row r="109" spans="2:19">
@@ -5680,13 +5701,13 @@
         <v>391</v>
       </c>
       <c r="J109" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="R109" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="S109" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
     </row>
     <row r="110" spans="2:19">
@@ -5709,13 +5730,13 @@
         <v>131</v>
       </c>
       <c r="J110" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="R110" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="S110" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
     </row>
     <row r="111" spans="2:19">
@@ -5738,13 +5759,13 @@
         <v>392</v>
       </c>
       <c r="J111" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="R111" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="S111" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
     </row>
     <row r="112" spans="2:19">
@@ -5767,13 +5788,13 @@
         <v>362</v>
       </c>
       <c r="J112" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="R112" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="S112" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
     </row>
     <row r="113" spans="2:19">
@@ -5796,13 +5817,13 @@
         <v>150</v>
       </c>
       <c r="J113" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="R113" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="S113" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
     </row>
     <row r="114" spans="2:19">
@@ -5825,13 +5846,13 @@
         <v>393</v>
       </c>
       <c r="J114" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="R114" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="S114" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
     </row>
     <row r="115" spans="2:19">
@@ -5854,10 +5875,10 @@
         <v>128</v>
       </c>
       <c r="J115" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="S115" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="116" spans="2:19">
@@ -5880,13 +5901,13 @@
         <v>394</v>
       </c>
       <c r="J116" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="R116" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="S116" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="117" spans="2:19">
@@ -5909,13 +5930,13 @@
         <v>131</v>
       </c>
       <c r="J117" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="R117" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="S117" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="118" spans="2:19">
@@ -5938,13 +5959,13 @@
         <v>395</v>
       </c>
       <c r="J118" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="R118" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S118" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="119" spans="2:19">
@@ -5967,13 +5988,13 @@
         <v>155</v>
       </c>
       <c r="J119" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="R119" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="S119" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="120" spans="2:19">
@@ -5996,10 +6017,10 @@
         <v>199</v>
       </c>
       <c r="J120" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="S120" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="121" spans="2:19">
@@ -6022,13 +6043,13 @@
         <v>396</v>
       </c>
       <c r="J121" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="R121" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="S121" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="122" spans="2:19">
@@ -6051,10 +6072,10 @@
         <v>356</v>
       </c>
       <c r="J122" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="S122" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="123" spans="2:19">
@@ -6077,10 +6098,10 @@
         <v>128</v>
       </c>
       <c r="J123" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="S123" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
     </row>
     <row r="124" spans="2:19">
@@ -6103,13 +6124,13 @@
         <v>397</v>
       </c>
       <c r="J124" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="R124" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="S124" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
     </row>
     <row r="125" spans="2:19">
@@ -6132,13 +6153,13 @@
         <v>136</v>
       </c>
       <c r="J125" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="R125" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="S125" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
     </row>
     <row r="126" spans="2:19">
@@ -6161,13 +6182,13 @@
         <v>398</v>
       </c>
       <c r="J126" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="R126" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="S126" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
     </row>
     <row r="127" spans="2:19">
@@ -6190,13 +6211,13 @@
         <v>133</v>
       </c>
       <c r="J127" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="R127" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="S127" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
     </row>
     <row r="128" spans="2:19">
@@ -6219,13 +6240,13 @@
         <v>399</v>
       </c>
       <c r="J128" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="R128" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="S128" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
     </row>
     <row r="129" spans="2:19">
@@ -6248,13 +6269,13 @@
         <v>359</v>
       </c>
       <c r="J129" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="R129" t="s">
         <v>113</v>
       </c>
       <c r="S129" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
     </row>
     <row r="130" spans="2:19">
@@ -6277,10 +6298,10 @@
         <v>128</v>
       </c>
       <c r="J130" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="S130" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="131" spans="2:19">
@@ -6303,10 +6324,10 @@
         <v>204</v>
       </c>
       <c r="J131" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="S131" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="132" spans="2:19">
@@ -6329,13 +6350,13 @@
         <v>400</v>
       </c>
       <c r="J132" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="R132" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="S132" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="133" spans="2:19">
@@ -6358,10 +6379,10 @@
         <v>136</v>
       </c>
       <c r="J133" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="S133" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="134" spans="2:19">
@@ -6384,13 +6405,13 @@
         <v>401</v>
       </c>
       <c r="J134" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="R134" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S134" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="135" spans="2:19">
@@ -6413,10 +6434,10 @@
         <v>155</v>
       </c>
       <c r="J135" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="S135" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="136" spans="2:19">
@@ -6439,13 +6460,13 @@
         <v>402</v>
       </c>
       <c r="J136" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="R136" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="S136" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="137" spans="2:19">
@@ -6468,13 +6489,13 @@
         <v>403</v>
       </c>
       <c r="J137" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="R137" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="S137" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="138" spans="2:19">
@@ -6497,13 +6518,13 @@
         <v>128</v>
       </c>
       <c r="J138" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="R138" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="S138" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="139" spans="2:19">
@@ -6526,13 +6547,13 @@
         <v>157</v>
       </c>
       <c r="J139" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="R139" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S139" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="140" spans="2:19">
@@ -6555,13 +6576,13 @@
         <v>365</v>
       </c>
       <c r="J140" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="R140" t="s">
         <v>114</v>
       </c>
       <c r="S140" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="141" spans="2:19">
@@ -6584,13 +6605,13 @@
         <v>362</v>
       </c>
       <c r="J141" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="R141" t="s">
         <v>114</v>
       </c>
       <c r="S141" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="142" spans="2:19">
@@ -6613,13 +6634,13 @@
         <v>363</v>
       </c>
       <c r="J142" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="R142" t="s">
         <v>114</v>
       </c>
       <c r="S142" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="143" spans="2:19">
@@ -6642,13 +6663,13 @@
         <v>364</v>
       </c>
       <c r="J143" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="R143" t="s">
         <v>114</v>
       </c>
       <c r="S143" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="144" spans="2:19">
@@ -6671,13 +6692,13 @@
         <v>359</v>
       </c>
       <c r="J144" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="R144" t="s">
         <v>114</v>
       </c>
       <c r="S144" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="145" spans="2:19">
@@ -6700,13 +6721,13 @@
         <v>404</v>
       </c>
       <c r="J145" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="R145" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="S145" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
     </row>
     <row r="146" spans="2:19">
@@ -6729,10 +6750,10 @@
         <v>145</v>
       </c>
       <c r="J146" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="S146" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
     </row>
     <row r="147" spans="2:19">
@@ -6755,13 +6776,13 @@
         <v>405</v>
       </c>
       <c r="J147" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="R147" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="S147" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
     </row>
     <row r="148" spans="2:19">
@@ -6784,13 +6805,13 @@
         <v>336</v>
       </c>
       <c r="J148" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="R148" t="s">
         <v>113</v>
       </c>
       <c r="S148" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
     </row>
     <row r="149" spans="2:19">
@@ -6813,13 +6834,13 @@
         <v>133</v>
       </c>
       <c r="J149" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="R149" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="S149" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
     </row>
     <row r="150" spans="2:19">
@@ -6842,13 +6863,13 @@
         <v>155</v>
       </c>
       <c r="J150" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="R150" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="S150" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
     </row>
     <row r="151" spans="2:19">
@@ -6871,13 +6892,13 @@
         <v>406</v>
       </c>
       <c r="J151" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="R151" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="S151" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
     </row>
     <row r="152" spans="2:19">
@@ -6900,10 +6921,10 @@
         <v>136</v>
       </c>
       <c r="J152" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="S152" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
     </row>
     <row r="153" spans="2:19">
@@ -6926,13 +6947,13 @@
         <v>407</v>
       </c>
       <c r="J153" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="R153" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="S153" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
     </row>
     <row r="154" spans="2:19">
@@ -6955,13 +6976,13 @@
         <v>155</v>
       </c>
       <c r="J154" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="R154" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="S154" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
     </row>
     <row r="155" spans="2:19">
@@ -6984,13 +7005,13 @@
         <v>408</v>
       </c>
       <c r="J155" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="R155" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="S155" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
     </row>
     <row r="156" spans="2:19">
@@ -7013,13 +7034,13 @@
         <v>356</v>
       </c>
       <c r="J156" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="R156" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="S156" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
     </row>
     <row r="157" spans="2:19">
@@ -7042,13 +7063,13 @@
         <v>131</v>
       </c>
       <c r="J157" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="R157" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="S157" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
     </row>
     <row r="158" spans="2:19">
@@ -7071,13 +7092,13 @@
         <v>409</v>
       </c>
       <c r="J158" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="R158" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S158" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
     </row>
     <row r="159" spans="2:19">
@@ -7100,13 +7121,13 @@
         <v>410</v>
       </c>
       <c r="J159" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="R159" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="S159" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
     </row>
     <row r="160" spans="2:19">
@@ -7129,13 +7150,13 @@
         <v>376</v>
       </c>
       <c r="J160" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="R160" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="S160" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
     </row>
     <row r="161" spans="2:19">
@@ -7158,13 +7179,13 @@
         <v>411</v>
       </c>
       <c r="J161" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="R161" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="S161" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
     </row>
     <row r="162" spans="2:19">
@@ -7187,13 +7208,13 @@
         <v>136</v>
       </c>
       <c r="J162" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="R162" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="S162" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
     </row>
     <row r="163" spans="2:19">
@@ -7216,13 +7237,13 @@
         <v>412</v>
       </c>
       <c r="J163" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="R163" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="S163" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
     </row>
     <row r="164" spans="2:19">
@@ -7245,13 +7266,13 @@
         <v>131</v>
       </c>
       <c r="J164" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="R164" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="S164" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
     </row>
     <row r="165" spans="2:19">
@@ -7274,13 +7295,13 @@
         <v>413</v>
       </c>
       <c r="J165" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="R165" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="S165" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
     </row>
     <row r="166" spans="2:19">
@@ -7303,13 +7324,13 @@
         <v>414</v>
       </c>
       <c r="J166" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="R166" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
       <c r="S166" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
     </row>
     <row r="167" spans="2:19">
@@ -7332,13 +7353,13 @@
         <v>372</v>
       </c>
       <c r="J167" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="R167" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="S167" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
     </row>
     <row r="168" spans="2:19">
@@ -7361,10 +7382,10 @@
         <v>136</v>
       </c>
       <c r="J168" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="S168" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
     </row>
     <row r="169" spans="2:19">
@@ -7387,13 +7408,13 @@
         <v>415</v>
       </c>
       <c r="J169" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="R169" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S169" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
     </row>
     <row r="170" spans="2:19">
@@ -7416,13 +7437,13 @@
         <v>131</v>
       </c>
       <c r="J170" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="R170" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="S170" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
     </row>
     <row r="171" spans="2:19">
@@ -7445,13 +7466,13 @@
         <v>416</v>
       </c>
       <c r="J171" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="R171" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="S171" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
     </row>
     <row r="172" spans="2:19">
@@ -7474,13 +7495,13 @@
         <v>364</v>
       </c>
       <c r="J172" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="R172" t="s">
         <v>118</v>
       </c>
       <c r="S172" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
     </row>
     <row r="173" spans="2:19">
@@ -7503,13 +7524,13 @@
         <v>359</v>
       </c>
       <c r="J173" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="R173" t="s">
         <v>118</v>
       </c>
       <c r="S173" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
     </row>
     <row r="174" spans="2:19">
@@ -7532,13 +7553,13 @@
         <v>417</v>
       </c>
       <c r="J174" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="R174" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="S174" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
     </row>
     <row r="175" spans="2:19">
@@ -7561,13 +7582,13 @@
         <v>133</v>
       </c>
       <c r="J175" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="R175" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="S175" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
     </row>
     <row r="176" spans="2:19">
@@ -7590,13 +7611,13 @@
         <v>418</v>
       </c>
       <c r="J176" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="R176" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S176" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
     </row>
     <row r="177" spans="2:19">
@@ -7619,10 +7640,10 @@
         <v>155</v>
       </c>
       <c r="J177" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="S177" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
     </row>
     <row r="178" spans="2:19">
@@ -7645,13 +7666,13 @@
         <v>419</v>
       </c>
       <c r="J178" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="R178" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="S178" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
     </row>
     <row r="179" spans="2:19">
@@ -7674,13 +7695,13 @@
         <v>420</v>
       </c>
       <c r="J179" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="R179" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="S179" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
     </row>
     <row r="180" spans="2:19">
@@ -7703,13 +7724,13 @@
         <v>421</v>
       </c>
       <c r="J180" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="R180" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="S180" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
     </row>
     <row r="181" spans="2:19">
@@ -7732,13 +7753,13 @@
         <v>364</v>
       </c>
       <c r="J181" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="R181" t="s">
         <v>114</v>
       </c>
       <c r="S181" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
     </row>
     <row r="182" spans="2:19">
@@ -7761,13 +7782,13 @@
         <v>359</v>
       </c>
       <c r="J182" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="R182" t="s">
         <v>114</v>
       </c>
       <c r="S182" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
     </row>
     <row r="183" spans="2:19">
@@ -7790,13 +7811,13 @@
         <v>420</v>
       </c>
       <c r="J183" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="R183" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="S183" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
     </row>
     <row r="184" spans="2:19">
@@ -7819,13 +7840,13 @@
         <v>422</v>
       </c>
       <c r="J184" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="R184" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="S184" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
     </row>
     <row r="185" spans="2:19">
@@ -7848,13 +7869,13 @@
         <v>423</v>
       </c>
       <c r="J185" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="R185" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="S185" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
     </row>
     <row r="186" spans="2:19">
@@ -7877,13 +7898,13 @@
         <v>424</v>
       </c>
       <c r="J186" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="R186" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S186" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="187" spans="2:19">
@@ -7906,10 +7927,10 @@
         <v>150</v>
       </c>
       <c r="J187" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="S187" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="188" spans="2:19">
@@ -7932,13 +7953,13 @@
         <v>425</v>
       </c>
       <c r="J188" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="R188" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S188" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="189" spans="2:19">
@@ -7961,10 +7982,10 @@
         <v>133</v>
       </c>
       <c r="J189" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="S189" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="190" spans="2:19">
@@ -7987,13 +8008,13 @@
         <v>426</v>
       </c>
       <c r="J190" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="R190" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S190" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="191" spans="2:19">
@@ -8016,13 +8037,13 @@
         <v>427</v>
       </c>
       <c r="J191" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="R191" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S191" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="192" spans="2:19">
@@ -8045,13 +8066,13 @@
         <v>131</v>
       </c>
       <c r="J192" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="R192" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="S192" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="193" spans="2:19">
@@ -8074,13 +8095,13 @@
         <v>428</v>
       </c>
       <c r="J193" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="R193" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S193" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="194" spans="2:19">
@@ -8103,10 +8124,10 @@
         <v>150</v>
       </c>
       <c r="J194" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="S194" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="195" spans="2:19">
@@ -8129,13 +8150,13 @@
         <v>429</v>
       </c>
       <c r="J195" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="R195" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="S195" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="196" spans="2:19">
@@ -8158,13 +8179,13 @@
         <v>363</v>
       </c>
       <c r="J196" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="R196" t="s">
         <v>115</v>
       </c>
       <c r="S196" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="197" spans="2:19">
@@ -8187,13 +8208,13 @@
         <v>145</v>
       </c>
       <c r="J197" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="R197" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="S197" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="198" spans="2:19">
@@ -8216,13 +8237,13 @@
         <v>430</v>
       </c>
       <c r="J198" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="R198" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S198" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="199" spans="2:19">
@@ -8245,13 +8266,13 @@
         <v>431</v>
       </c>
       <c r="J199" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="R199" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="S199" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="200" spans="2:19">
@@ -8274,13 +8295,13 @@
         <v>150</v>
       </c>
       <c r="J200" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="R200" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="S200" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="201" spans="2:19">
@@ -8303,13 +8324,13 @@
         <v>432</v>
       </c>
       <c r="J201" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="R201" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S201" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="202" spans="2:19">
@@ -8332,13 +8353,13 @@
         <v>339</v>
       </c>
       <c r="J202" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="R202" t="s">
         <v>114</v>
       </c>
       <c r="S202" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
     </row>
     <row r="203" spans="2:19">
@@ -8361,13 +8382,13 @@
         <v>136</v>
       </c>
       <c r="J203" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="R203" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="S203" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
     </row>
     <row r="204" spans="2:19">
@@ -8390,13 +8411,13 @@
         <v>433</v>
       </c>
       <c r="J204" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="R204" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="S204" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
     </row>
     <row r="205" spans="2:19">
@@ -8419,13 +8440,13 @@
         <v>133</v>
       </c>
       <c r="J205" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="R205" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="S205" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
     </row>
     <row r="206" spans="2:19">
@@ -8448,13 +8469,13 @@
         <v>434</v>
       </c>
       <c r="J206" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="R206" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S206" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
     </row>
     <row r="207" spans="2:19">
@@ -8477,13 +8498,13 @@
         <v>155</v>
       </c>
       <c r="J207" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="R207" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="S207" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
     </row>
     <row r="208" spans="2:19">
@@ -8506,13 +8527,13 @@
         <v>435</v>
       </c>
       <c r="J208" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="R208" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="S208" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
     </row>
     <row r="209" spans="2:19">
@@ -8535,13 +8556,13 @@
         <v>356</v>
       </c>
       <c r="J209" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="R209" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="S209" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
     </row>
     <row r="210" spans="2:19">
@@ -8564,13 +8585,13 @@
         <v>336</v>
       </c>
       <c r="J210" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="R210" t="s">
         <v>115</v>
       </c>
       <c r="S210" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
     </row>
     <row r="211" spans="2:19">
@@ -8593,13 +8614,13 @@
         <v>365</v>
       </c>
       <c r="J211" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="R211" t="s">
         <v>115</v>
       </c>
       <c r="S211" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
     </row>
     <row r="212" spans="2:19">
@@ -8622,13 +8643,13 @@
         <v>155</v>
       </c>
       <c r="J212" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="R212" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="S212" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
     </row>
     <row r="213" spans="2:19">
@@ -8651,13 +8672,13 @@
         <v>436</v>
       </c>
       <c r="J213" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="R213" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="S213" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
     </row>
     <row r="214" spans="2:19">
@@ -8677,16 +8698,16 @@
         <v>145</v>
       </c>
       <c r="H214" t="s">
-        <v>145</v>
+        <v>437</v>
       </c>
       <c r="J214" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="R214" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="S214" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
     </row>
     <row r="215" spans="2:19">
@@ -8706,16 +8727,16 @@
         <v>245</v>
       </c>
       <c r="H215" t="s">
-        <v>245</v>
+        <v>145</v>
       </c>
       <c r="J215" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="R215" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="S215" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
     </row>
     <row r="216" spans="2:19">
@@ -8735,16 +8756,16 @@
         <v>128</v>
       </c>
       <c r="H216" t="s">
-        <v>128</v>
+        <v>438</v>
       </c>
       <c r="J216" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="R216" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="S216" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
     </row>
     <row r="217" spans="2:19">
@@ -8764,16 +8785,16 @@
         <v>246</v>
       </c>
       <c r="H217" t="s">
-        <v>246</v>
+        <v>128</v>
       </c>
       <c r="J217" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="R217" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="S217" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
     </row>
     <row r="218" spans="2:19">
@@ -8793,16 +8814,16 @@
         <v>136</v>
       </c>
       <c r="H218" t="s">
-        <v>136</v>
+        <v>439</v>
       </c>
       <c r="J218" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="R218" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="S218" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
     </row>
     <row r="219" spans="2:19">
@@ -8822,16 +8843,16 @@
         <v>247</v>
       </c>
       <c r="H219" t="s">
-        <v>247</v>
+        <v>131</v>
       </c>
       <c r="J219" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="R219" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="S219" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
     </row>
     <row r="220" spans="2:19">
@@ -8851,16 +8872,16 @@
         <v>150</v>
       </c>
       <c r="H220" t="s">
-        <v>150</v>
+        <v>440</v>
       </c>
       <c r="J220" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="R220" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="S220" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
     </row>
     <row r="221" spans="2:19">
@@ -8880,16 +8901,16 @@
         <v>248</v>
       </c>
       <c r="H221" t="s">
-        <v>248</v>
+        <v>441</v>
       </c>
       <c r="J221" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="R221" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="S221" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
     </row>
     <row r="222" spans="2:19">
@@ -8909,16 +8930,16 @@
         <v>145</v>
       </c>
       <c r="H222" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="J222" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="R222" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S222" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="223" spans="2:19">
@@ -8941,13 +8962,13 @@
         <v>131</v>
       </c>
       <c r="J223" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="R223" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="S223" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="224" spans="2:19">
@@ -8967,16 +8988,16 @@
         <v>131</v>
       </c>
       <c r="H224" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="J224" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="R224" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="S224" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="225" spans="2:19">
@@ -8999,13 +9020,13 @@
         <v>150</v>
       </c>
       <c r="J225" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="R225" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="S225" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="226" spans="2:19">
@@ -9028,13 +9049,13 @@
         <v>425</v>
       </c>
       <c r="J226" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="R226" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S226" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="227" spans="2:19">
@@ -9057,13 +9078,13 @@
         <v>131</v>
       </c>
       <c r="J227" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="R227" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="S227" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
     </row>
     <row r="228" spans="2:19">
@@ -9083,16 +9104,16 @@
         <v>131</v>
       </c>
       <c r="H228" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="J228" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="R228" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="S228" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
     </row>
     <row r="229" spans="2:19">
@@ -9115,13 +9136,13 @@
         <v>150</v>
       </c>
       <c r="J229" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="R229" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="S229" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
     </row>
     <row r="230" spans="2:19">
@@ -9141,16 +9162,16 @@
         <v>150</v>
       </c>
       <c r="H230" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="J230" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="R230" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="S230" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
     </row>
     <row r="231" spans="2:19">
@@ -9173,13 +9194,13 @@
         <v>155</v>
       </c>
       <c r="J231" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="R231" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="S231" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
     </row>
     <row r="232" spans="2:19">
@@ -9199,16 +9220,16 @@
         <v>155</v>
       </c>
       <c r="H232" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="J232" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="R232" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="S232" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
     </row>
     <row r="233" spans="2:19">
@@ -9231,13 +9252,13 @@
         <v>356</v>
       </c>
       <c r="J233" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="R233" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="S233" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
     </row>
     <row r="234" spans="2:19">
@@ -9257,16 +9278,16 @@
         <v>145</v>
       </c>
       <c r="H234" t="s">
-        <v>145</v>
+        <v>446</v>
       </c>
       <c r="J234" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="R234" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="S234" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
     </row>
     <row r="235" spans="2:19">
@@ -9286,16 +9307,16 @@
         <v>254</v>
       </c>
       <c r="H235" t="s">
-        <v>254</v>
+        <v>131</v>
       </c>
       <c r="J235" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="R235" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
       <c r="S235" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
     </row>
     <row r="236" spans="2:19">
@@ -9315,16 +9336,16 @@
         <v>255</v>
       </c>
       <c r="H236" t="s">
-        <v>255</v>
+        <v>150</v>
       </c>
       <c r="J236" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="R236" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
       <c r="S236" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
     </row>
     <row r="237" spans="2:19">
@@ -9344,16 +9365,16 @@
         <v>256</v>
       </c>
       <c r="H237" t="s">
-        <v>256</v>
+        <v>447</v>
       </c>
       <c r="J237" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="R237" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="S237" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
     </row>
     <row r="238" spans="2:19">
@@ -9376,13 +9397,13 @@
         <v>128</v>
       </c>
       <c r="J238" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="R238" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="S238" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
     </row>
     <row r="239" spans="2:19">
@@ -9402,16 +9423,16 @@
         <v>128</v>
       </c>
       <c r="H239" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="J239" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="R239" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S239" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
     </row>
     <row r="240" spans="2:19">
@@ -9434,10 +9455,10 @@
         <v>136</v>
       </c>
       <c r="J240" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="S240" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
     </row>
     <row r="241" spans="2:19">
@@ -9457,16 +9478,16 @@
         <v>136</v>
       </c>
       <c r="H241" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="J241" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="R241" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S241" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
     </row>
     <row r="242" spans="2:19">
@@ -9489,10 +9510,10 @@
         <v>131</v>
       </c>
       <c r="J242" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="S242" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
     </row>
     <row r="243" spans="2:19">
@@ -9512,16 +9533,16 @@
         <v>131</v>
       </c>
       <c r="H243" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="J243" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="R243" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="S243" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
     </row>
     <row r="244" spans="2:19">
@@ -9544,13 +9565,13 @@
         <v>128</v>
       </c>
       <c r="J244" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="R244" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="S244" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
     </row>
     <row r="245" spans="2:19">
@@ -9570,16 +9591,16 @@
         <v>128</v>
       </c>
       <c r="H245" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="J245" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="R245" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="S245" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
     </row>
     <row r="246" spans="2:19">
@@ -9602,10 +9623,10 @@
         <v>136</v>
       </c>
       <c r="J246" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="S246" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
     </row>
     <row r="247" spans="2:19">
@@ -9625,16 +9646,16 @@
         <v>136</v>
       </c>
       <c r="H247" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="J247" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="R247" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="S247" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
     </row>
     <row r="248" spans="2:19">
@@ -9657,13 +9678,13 @@
         <v>365</v>
       </c>
       <c r="J248" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="R248" t="s">
         <v>113</v>
       </c>
       <c r="S248" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
     </row>
     <row r="249" spans="2:19">
@@ -9686,10 +9707,10 @@
         <v>150</v>
       </c>
       <c r="J249" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="S249" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
     </row>
     <row r="250" spans="2:19">
@@ -9709,16 +9730,16 @@
         <v>150</v>
       </c>
       <c r="H250" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="J250" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="R250" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="S250" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
     </row>
     <row r="251" spans="2:19">
@@ -9741,10 +9762,10 @@
         <v>133</v>
       </c>
       <c r="J251" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="S251" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
     </row>
     <row r="252" spans="2:19">
@@ -9764,16 +9785,16 @@
         <v>133</v>
       </c>
       <c r="H252" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="J252" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="R252" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S252" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
     </row>
     <row r="253" spans="2:19">
@@ -9793,16 +9814,16 @@
         <v>262</v>
       </c>
       <c r="H253" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="J253" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="R253" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
       <c r="S253" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
     </row>
     <row r="254" spans="2:19">
@@ -9825,10 +9846,10 @@
         <v>128</v>
       </c>
       <c r="J254" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="S254" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
     </row>
     <row r="255" spans="2:19">
@@ -9848,16 +9869,16 @@
         <v>128</v>
       </c>
       <c r="H255" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="J255" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="R255" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S255" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
     </row>
     <row r="256" spans="2:19">
@@ -9880,10 +9901,10 @@
         <v>136</v>
       </c>
       <c r="J256" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="S256" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
     </row>
     <row r="257" spans="2:19">
@@ -9903,16 +9924,16 @@
         <v>136</v>
       </c>
       <c r="H257" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="J257" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="R257" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S257" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
     </row>
     <row r="258" spans="2:19">
@@ -9935,10 +9956,10 @@
         <v>131</v>
       </c>
       <c r="J258" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="S258" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
     </row>
     <row r="259" spans="2:19">
@@ -9958,16 +9979,16 @@
         <v>131</v>
       </c>
       <c r="H259" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="J259" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="R259" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S259" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
     </row>
     <row r="260" spans="2:19">
@@ -9990,10 +10011,10 @@
         <v>150</v>
       </c>
       <c r="J260" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="S260" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
     </row>
     <row r="261" spans="2:19">
@@ -10013,16 +10034,16 @@
         <v>150</v>
       </c>
       <c r="H261" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="J261" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="R261" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S261" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
     </row>
     <row r="262" spans="2:19">
@@ -10045,10 +10066,10 @@
         <v>133</v>
       </c>
       <c r="J262" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="S262" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
     </row>
     <row r="263" spans="2:19">
@@ -10068,16 +10089,16 @@
         <v>133</v>
       </c>
       <c r="H263" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="J263" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="R263" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S263" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
     </row>
     <row r="264" spans="2:19">
@@ -10100,13 +10121,13 @@
         <v>339</v>
       </c>
       <c r="J264" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="R264" t="s">
         <v>114</v>
       </c>
       <c r="S264" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
     </row>
     <row r="265" spans="2:19">
@@ -10129,13 +10150,13 @@
         <v>136</v>
       </c>
       <c r="J265" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="R265" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="S265" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
     </row>
     <row r="266" spans="2:19">
@@ -10155,16 +10176,16 @@
         <v>131</v>
       </c>
       <c r="H266" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="J266" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="R266" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S266" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
     </row>
     <row r="267" spans="2:19">
@@ -10187,10 +10208,10 @@
         <v>131</v>
       </c>
       <c r="J267" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="S267" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
     </row>
     <row r="268" spans="2:19">
@@ -10210,16 +10231,16 @@
         <v>150</v>
       </c>
       <c r="H268" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="J268" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="R268" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S268" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
     </row>
     <row r="269" spans="2:19">
@@ -10239,16 +10260,16 @@
         <v>270</v>
       </c>
       <c r="H269" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="J269" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="R269" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="S269" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
     </row>
     <row r="270" spans="2:19">
@@ -10271,10 +10292,10 @@
         <v>150</v>
       </c>
       <c r="J270" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="S270" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="271" spans="2:19">
@@ -10294,16 +10315,16 @@
         <v>133</v>
       </c>
       <c r="H271" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="J271" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="R271" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S271" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="272" spans="2:19">
@@ -10326,13 +10347,13 @@
         <v>133</v>
       </c>
       <c r="J272" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="R272" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="S272" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="273" spans="2:19">
@@ -10352,16 +10373,16 @@
         <v>155</v>
       </c>
       <c r="H273" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="J273" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="R273" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S273" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="274" spans="2:19">
@@ -10384,13 +10405,13 @@
         <v>155</v>
       </c>
       <c r="J274" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="R274" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="S274" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="275" spans="2:19">
@@ -10413,10 +10434,10 @@
         <v>128</v>
       </c>
       <c r="J275" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="S275" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
     </row>
     <row r="276" spans="2:19">
@@ -10436,16 +10457,16 @@
         <v>128</v>
       </c>
       <c r="H276" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="J276" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="R276" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S276" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
     </row>
     <row r="277" spans="2:19">
@@ -10468,13 +10489,13 @@
         <v>136</v>
       </c>
       <c r="J277" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="R277" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="S277" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
     </row>
     <row r="278" spans="2:19">
@@ -10494,16 +10515,16 @@
         <v>136</v>
       </c>
       <c r="H278" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="J278" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="R278" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="S278" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
     </row>
     <row r="279" spans="2:19">
@@ -10526,13 +10547,13 @@
         <v>131</v>
       </c>
       <c r="J279" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="R279" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="S279" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
     </row>
     <row r="280" spans="2:19">
@@ -10552,16 +10573,16 @@
         <v>131</v>
       </c>
       <c r="H280" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="J280" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="R280" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S280" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
     </row>
     <row r="281" spans="2:19">
@@ -10584,10 +10605,10 @@
         <v>150</v>
       </c>
       <c r="J281" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="S281" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
     </row>
     <row r="282" spans="2:19">
@@ -10607,16 +10628,16 @@
         <v>150</v>
       </c>
       <c r="H282" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="J282" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="R282" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S282" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
     </row>
     <row r="283" spans="2:19">
@@ -10636,16 +10657,16 @@
         <v>276</v>
       </c>
       <c r="H283" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="J283" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="R283" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="S283" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
     </row>
     <row r="284" spans="2:19">
@@ -10665,16 +10686,16 @@
         <v>277</v>
       </c>
       <c r="H284" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="J284" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="R284" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="S284" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
     </row>
     <row r="285" spans="2:19">
@@ -10694,16 +10715,16 @@
         <v>278</v>
       </c>
       <c r="H285" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="J285" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="R285" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="S285" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
     </row>
     <row r="286" spans="2:19">
@@ -10726,13 +10747,13 @@
         <v>136</v>
       </c>
       <c r="J286" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="R286" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="S286" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
     </row>
     <row r="287" spans="2:19">
@@ -10752,16 +10773,16 @@
         <v>136</v>
       </c>
       <c r="H287" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="J287" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
       <c r="R287" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S287" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
     </row>
     <row r="288" spans="2:19">
@@ -10784,13 +10805,13 @@
         <v>150</v>
       </c>
       <c r="J288" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="R288" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="S288" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
     </row>
     <row r="289" spans="2:19">
@@ -10810,16 +10831,16 @@
         <v>150</v>
       </c>
       <c r="H289" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="J289" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="R289" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S289" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
     </row>
     <row r="290" spans="2:19">
@@ -10842,13 +10863,13 @@
         <v>133</v>
       </c>
       <c r="J290" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="R290" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="S290" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
     </row>
     <row r="291" spans="2:19">
@@ -10868,16 +10889,16 @@
         <v>133</v>
       </c>
       <c r="H291" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="J291" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="R291" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S291" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
     </row>
     <row r="292" spans="2:19">
@@ -10900,13 +10921,13 @@
         <v>356</v>
       </c>
       <c r="J292" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="R292" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="S292" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
     </row>
     <row r="293" spans="2:19">
@@ -10926,16 +10947,16 @@
         <v>280</v>
       </c>
       <c r="H293" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="J293" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="R293" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="S293" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
     </row>
     <row r="294" spans="2:19">
@@ -10958,10 +10979,10 @@
         <v>133</v>
       </c>
       <c r="J294" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="S294" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
     </row>
     <row r="295" spans="2:19">
@@ -10981,16 +11002,16 @@
         <v>133</v>
       </c>
       <c r="H295" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="J295" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="R295" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="S295" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
     </row>
     <row r="296" spans="2:19">
@@ -11010,16 +11031,16 @@
         <v>282</v>
       </c>
       <c r="H296" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="J296" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="R296" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="S296" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
     </row>
     <row r="297" spans="2:19">
@@ -11042,10 +11063,10 @@
         <v>356</v>
       </c>
       <c r="J297" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="S297" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
     </row>
     <row r="298" spans="2:19">
@@ -11068,13 +11089,13 @@
         <v>145</v>
       </c>
       <c r="J298" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="R298" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="S298" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
     </row>
     <row r="299" spans="2:19">
@@ -11097,13 +11118,13 @@
         <v>161</v>
       </c>
       <c r="J299" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="R299" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S299" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
     </row>
     <row r="300" spans="2:19">
@@ -11126,13 +11147,13 @@
         <v>150</v>
       </c>
       <c r="J300" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
       <c r="R300" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="S300" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
     </row>
     <row r="301" spans="2:19">
@@ -11152,16 +11173,16 @@
         <v>133</v>
       </c>
       <c r="H301" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="J301" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="R301" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S301" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
     </row>
     <row r="302" spans="2:19">
@@ -11184,13 +11205,13 @@
         <v>133</v>
       </c>
       <c r="J302" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="R302" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="S302" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
     </row>
     <row r="303" spans="2:19">
@@ -11210,16 +11231,16 @@
         <v>155</v>
       </c>
       <c r="H303" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="J303" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="R303" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S303" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
     </row>
     <row r="304" spans="2:19">
@@ -11242,13 +11263,13 @@
         <v>128</v>
       </c>
       <c r="J304" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="R304" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="S304" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
     </row>
     <row r="305" spans="2:19">
@@ -11271,13 +11292,13 @@
         <v>246</v>
       </c>
       <c r="J305" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="R305" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="S305" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
     </row>
     <row r="306" spans="2:19">
@@ -11300,13 +11321,13 @@
         <v>136</v>
       </c>
       <c r="J306" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="R306" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="S306" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
     </row>
     <row r="307" spans="2:19">
@@ -11329,13 +11350,13 @@
         <v>433</v>
       </c>
       <c r="J307" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="R307" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="S307" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
     </row>
     <row r="308" spans="2:19">
@@ -11358,10 +11379,10 @@
         <v>131</v>
       </c>
       <c r="J308" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="S308" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
     </row>
     <row r="309" spans="2:19">
@@ -11381,16 +11402,16 @@
         <v>131</v>
       </c>
       <c r="H309" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="J309" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="R309" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="S309" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
     </row>
     <row r="310" spans="2:19">
@@ -11413,10 +11434,10 @@
         <v>128</v>
       </c>
       <c r="J310" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="S310" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
     </row>
     <row r="311" spans="2:19">
@@ -11436,16 +11457,16 @@
         <v>128</v>
       </c>
       <c r="H311" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="J311" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="R311" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="S311" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
     </row>
     <row r="312" spans="2:19">
@@ -11468,10 +11489,10 @@
         <v>133</v>
       </c>
       <c r="J312" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="S312" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
     </row>
     <row r="313" spans="2:19">
@@ -11491,16 +11512,16 @@
         <v>133</v>
       </c>
       <c r="H313" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="J313" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="R313" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="S313" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
     </row>
     <row r="314" spans="2:19">
@@ -11523,10 +11544,10 @@
         <v>155</v>
       </c>
       <c r="J314" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="S314" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
     </row>
     <row r="315" spans="2:19">
@@ -11546,16 +11567,16 @@
         <v>155</v>
       </c>
       <c r="H315" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="J315" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="R315" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="S315" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
     </row>
     <row r="316" spans="2:19">
@@ -11578,10 +11599,10 @@
         <v>356</v>
       </c>
       <c r="J316" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="S316" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
     </row>
     <row r="317" spans="2:19">
@@ -11604,13 +11625,13 @@
         <v>145</v>
       </c>
       <c r="J317" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="R317" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="S317" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="318" spans="2:19">
@@ -11633,13 +11654,13 @@
         <v>405</v>
       </c>
       <c r="J318" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="R318" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S318" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="319" spans="2:19">
@@ -11662,13 +11683,13 @@
         <v>128</v>
       </c>
       <c r="J319" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="R319" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="S319" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="320" spans="2:19">
@@ -11688,16 +11709,16 @@
         <v>136</v>
       </c>
       <c r="H320" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="J320" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="R320" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S320" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="321" spans="2:19">
@@ -11720,13 +11741,13 @@
         <v>365</v>
       </c>
       <c r="J321" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="R321" t="s">
         <v>114</v>
       </c>
       <c r="S321" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="322" spans="2:19">
@@ -11749,13 +11770,13 @@
         <v>362</v>
       </c>
       <c r="J322" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="R322" t="s">
         <v>114</v>
       </c>
       <c r="S322" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="323" spans="2:19">
@@ -11778,13 +11799,13 @@
         <v>150</v>
       </c>
       <c r="J323" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="R323" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="S323" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="324" spans="2:19">
@@ -11804,16 +11825,16 @@
         <v>133</v>
       </c>
       <c r="H324" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="J324" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="R324" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S324" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="325" spans="2:19">
@@ -11833,16 +11854,16 @@
         <v>145</v>
       </c>
       <c r="H325" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="J325" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="R325" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S325" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
     </row>
     <row r="326" spans="2:19">
@@ -11865,13 +11886,13 @@
         <v>145</v>
       </c>
       <c r="J326" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="R326" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="S326" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
     </row>
     <row r="327" spans="2:19">
@@ -11891,16 +11912,16 @@
         <v>128</v>
       </c>
       <c r="H327" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="J327" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="R327" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S327" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
     </row>
     <row r="328" spans="2:19">
@@ -11923,13 +11944,13 @@
         <v>131</v>
       </c>
       <c r="J328" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="R328" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="S328" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
     </row>
     <row r="329" spans="2:19">
@@ -11949,16 +11970,16 @@
         <v>150</v>
       </c>
       <c r="H329" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="J329" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="R329" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S329" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
     </row>
     <row r="330" spans="2:19">
@@ -11978,16 +11999,16 @@
         <v>296</v>
       </c>
       <c r="H330" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="J330" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="R330" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="S330" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
     </row>
     <row r="331" spans="2:19">
@@ -12010,10 +12031,10 @@
         <v>128</v>
       </c>
       <c r="J331" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="S331" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
     </row>
     <row r="332" spans="2:19">
@@ -12033,16 +12054,16 @@
         <v>128</v>
       </c>
       <c r="H332" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="J332" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="R332" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="S332" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
     </row>
     <row r="333" spans="2:19">
@@ -12065,10 +12086,10 @@
         <v>136</v>
       </c>
       <c r="J333" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="S333" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
     </row>
     <row r="334" spans="2:19">
@@ -12088,16 +12109,16 @@
         <v>136</v>
       </c>
       <c r="H334" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="J334" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="R334" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S334" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
     </row>
     <row r="335" spans="2:19">
@@ -12120,10 +12141,10 @@
         <v>150</v>
       </c>
       <c r="J335" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="S335" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
     </row>
     <row r="336" spans="2:19">
@@ -12143,16 +12164,16 @@
         <v>150</v>
       </c>
       <c r="H336" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="J336" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="R336" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="S336" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
     </row>
     <row r="337" spans="2:19">
@@ -12175,13 +12196,13 @@
         <v>155</v>
       </c>
       <c r="J337" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="R337" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="S337" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
     </row>
     <row r="338" spans="2:19">
@@ -12204,13 +12225,13 @@
         <v>402</v>
       </c>
       <c r="J338" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="R338" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="S338" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
     </row>
     <row r="339" spans="2:19">
@@ -12230,16 +12251,16 @@
         <v>145</v>
       </c>
       <c r="H339" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="J339" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="R339" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="S339" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="340" spans="2:19">
@@ -12262,10 +12283,10 @@
         <v>128</v>
       </c>
       <c r="J340" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="S340" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="341" spans="2:19">
@@ -12288,13 +12309,13 @@
         <v>377</v>
       </c>
       <c r="J341" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="R341" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S341" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="342" spans="2:19">
@@ -12317,10 +12338,10 @@
         <v>150</v>
       </c>
       <c r="J342" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="S342" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="343" spans="2:19">
@@ -12340,16 +12361,16 @@
         <v>150</v>
       </c>
       <c r="H343" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="J343" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="R343" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S343" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="344" spans="2:19">
@@ -12372,10 +12393,10 @@
         <v>133</v>
       </c>
       <c r="J344" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="S344" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="345" spans="2:19">
@@ -12395,16 +12416,16 @@
         <v>133</v>
       </c>
       <c r="H345" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="J345" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="R345" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S345" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="346" spans="2:19">
@@ -12424,16 +12445,16 @@
         <v>300</v>
       </c>
       <c r="H346" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="J346" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="R346" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="S346" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
     </row>
     <row r="347" spans="2:19">
@@ -12453,16 +12474,16 @@
         <v>301</v>
       </c>
       <c r="H347" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="J347" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="R347" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="S347" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
     </row>
     <row r="348" spans="2:19">
@@ -12482,16 +12503,16 @@
         <v>302</v>
       </c>
       <c r="H348" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="J348" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="R348" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S348" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
     </row>
     <row r="349" spans="2:19">
@@ -12511,16 +12532,16 @@
         <v>303</v>
       </c>
       <c r="H349" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="J349" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="R349" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S349" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
     </row>
     <row r="350" spans="2:19">
@@ -12540,16 +12561,16 @@
         <v>304</v>
       </c>
       <c r="H350" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="J350" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="R350" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S350" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
     </row>
     <row r="351" spans="2:19">
@@ -12569,16 +12590,16 @@
         <v>293</v>
       </c>
       <c r="H351" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="J351" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="R351" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="S351" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
     </row>
     <row r="352" spans="2:19">
@@ -12598,16 +12619,16 @@
         <v>305</v>
       </c>
       <c r="H352" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="J352" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="R352" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="S352" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
     </row>
     <row r="353" spans="2:19">
@@ -12630,13 +12651,13 @@
         <v>131</v>
       </c>
       <c r="J353" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="R353" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="S353" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
     </row>
     <row r="354" spans="2:19">
@@ -12656,16 +12677,16 @@
         <v>150</v>
       </c>
       <c r="H354" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="J354" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="R354" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S354" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
     </row>
     <row r="355" spans="2:19">
@@ -12685,16 +12706,16 @@
         <v>307</v>
       </c>
       <c r="H355" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="J355" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="R355" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
       <c r="S355" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
     </row>
     <row r="356" spans="2:19">
@@ -12714,16 +12735,16 @@
         <v>294</v>
       </c>
       <c r="H356" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="J356" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="R356" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="S356" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
     </row>
     <row r="357" spans="2:19">
@@ -12746,13 +12767,13 @@
         <v>339</v>
       </c>
       <c r="J357" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="R357" t="s">
         <v>114</v>
       </c>
       <c r="S357" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="358" spans="2:19">
@@ -12772,16 +12793,16 @@
         <v>308</v>
       </c>
       <c r="H358" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="J358" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="R358" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="S358" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="359" spans="2:19">
@@ -12804,13 +12825,13 @@
         <v>136</v>
       </c>
       <c r="J359" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="R359" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="S359" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="360" spans="2:19">
@@ -12830,16 +12851,16 @@
         <v>131</v>
       </c>
       <c r="H360" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="J360" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="R360" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S360" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="361" spans="2:19">
@@ -12859,16 +12880,16 @@
         <v>310</v>
       </c>
       <c r="H361" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="J361" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="R361" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="S361" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="362" spans="2:19">
@@ -12888,16 +12909,16 @@
         <v>311</v>
       </c>
       <c r="H362" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="J362" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="R362" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="S362" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
     </row>
     <row r="363" spans="2:19">
@@ -12920,13 +12941,13 @@
         <v>133</v>
       </c>
       <c r="J363" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="R363" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="S363" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
     </row>
     <row r="364" spans="2:19">
@@ -12946,16 +12967,16 @@
         <v>155</v>
       </c>
       <c r="H364" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="J364" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="R364" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S364" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
     </row>
     <row r="365" spans="2:19">
@@ -12978,13 +12999,13 @@
         <v>155</v>
       </c>
       <c r="J365" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="R365" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="S365" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
     </row>
     <row r="366" spans="2:19">
@@ -13007,10 +13028,10 @@
         <v>128</v>
       </c>
       <c r="J366" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="S366" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
     </row>
     <row r="367" spans="2:19">
@@ -13030,16 +13051,16 @@
         <v>128</v>
       </c>
       <c r="H367" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="J367" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="R367" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S367" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
     </row>
     <row r="368" spans="2:19">
@@ -13062,10 +13083,10 @@
         <v>136</v>
       </c>
       <c r="J368" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="S368" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
     </row>
     <row r="369" spans="2:19">
@@ -13085,16 +13106,16 @@
         <v>136</v>
       </c>
       <c r="H369" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="J369" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="R369" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S369" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
     </row>
     <row r="370" spans="2:19">
@@ -13117,10 +13138,10 @@
         <v>131</v>
       </c>
       <c r="J370" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="S370" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
     </row>
     <row r="371" spans="2:19">
@@ -13140,16 +13161,16 @@
         <v>131</v>
       </c>
       <c r="H371" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="J371" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="R371" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S371" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
     </row>
     <row r="372" spans="2:19">
@@ -13169,13 +13190,13 @@
         <v>317</v>
       </c>
       <c r="H372" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="J372" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="S372" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
     </row>
     <row r="373" spans="2:19">
@@ -13198,10 +13219,10 @@
         <v>133</v>
       </c>
       <c r="J373" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="S373" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
     </row>
     <row r="374" spans="2:19">
@@ -13221,16 +13242,16 @@
         <v>133</v>
       </c>
       <c r="H374" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="J374" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="R374" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S374" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
     </row>
     <row r="375" spans="2:19">
@@ -13253,13 +13274,13 @@
         <v>427</v>
       </c>
       <c r="J375" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="R375" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S375" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
     </row>
     <row r="376" spans="2:19">
@@ -13282,13 +13303,13 @@
         <v>128</v>
       </c>
       <c r="J376" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
       <c r="R376" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="S376" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
     </row>
     <row r="377" spans="2:19">
@@ -13311,13 +13332,13 @@
         <v>348</v>
       </c>
       <c r="J377" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="R377" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="S377" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
     </row>
     <row r="378" spans="2:19">
@@ -13340,13 +13361,13 @@
         <v>131</v>
       </c>
       <c r="J378" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="R378" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="S378" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
     </row>
     <row r="379" spans="2:19">
@@ -13366,16 +13387,16 @@
         <v>131</v>
       </c>
       <c r="H379" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="J379" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="R379" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="S379" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
     </row>
     <row r="380" spans="2:19">
@@ -13395,16 +13416,16 @@
         <v>124</v>
       </c>
       <c r="H380" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="J380" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="R380" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="S380" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
     </row>
     <row r="381" spans="2:19">
@@ -13424,16 +13445,16 @@
         <v>309</v>
       </c>
       <c r="H381" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="J381" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="R381" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="S381" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
     </row>
     <row r="382" spans="2:19">
@@ -13456,13 +13477,13 @@
         <v>133</v>
       </c>
       <c r="J382" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
       <c r="R382" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="S382" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
     </row>
     <row r="383" spans="2:19">
@@ -13482,16 +13503,16 @@
         <v>155</v>
       </c>
       <c r="H383" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="J383" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="R383" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="S383" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
     </row>
     <row r="384" spans="2:19">
@@ -13511,16 +13532,16 @@
         <v>295</v>
       </c>
       <c r="H384" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="J384" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="R384" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="S384" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
     </row>
     <row r="385" spans="2:19">
@@ -13543,10 +13564,10 @@
         <v>131</v>
       </c>
       <c r="J385" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="S385" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
     </row>
     <row r="386" spans="2:19">
@@ -13566,16 +13587,16 @@
         <v>150</v>
       </c>
       <c r="H386" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="J386" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="R386" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S386" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
     </row>
     <row r="387" spans="2:19">
@@ -13598,10 +13619,10 @@
         <v>150</v>
       </c>
       <c r="J387" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="S387" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
     </row>
     <row r="388" spans="2:19">
@@ -13621,16 +13642,16 @@
         <v>133</v>
       </c>
       <c r="H388" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="J388" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="R388" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S388" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
     </row>
     <row r="389" spans="2:19">
@@ -13653,13 +13674,13 @@
         <v>404</v>
       </c>
       <c r="J389" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="R389" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S389" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="390" spans="2:19">
@@ -13682,10 +13703,10 @@
         <v>128</v>
       </c>
       <c r="J390" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="S390" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="391" spans="2:19">
@@ -13705,16 +13726,16 @@
         <v>136</v>
       </c>
       <c r="H391" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="J391" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="R391" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S391" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="392" spans="2:19">
@@ -13737,13 +13758,13 @@
         <v>136</v>
       </c>
       <c r="J392" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="R392" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="S392" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="393" spans="2:19">
@@ -13766,13 +13787,13 @@
         <v>387</v>
       </c>
       <c r="J393" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="R393" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S393" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="394" spans="2:19">
@@ -13795,13 +13816,13 @@
         <v>155</v>
       </c>
       <c r="J394" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="R394" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S394" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="395" spans="2:19">
@@ -13824,13 +13845,13 @@
         <v>128</v>
       </c>
       <c r="J395" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="R395" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
       <c r="S395" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
     </row>
     <row r="396" spans="2:19">
@@ -13850,16 +13871,16 @@
         <v>136</v>
       </c>
       <c r="H396" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="J396" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="R396" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S396" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
     </row>
     <row r="397" spans="2:19">
@@ -13879,16 +13900,16 @@
         <v>325</v>
       </c>
       <c r="H397" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="J397" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="R397" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="S397" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
     </row>
     <row r="398" spans="2:19">
@@ -13908,16 +13929,16 @@
         <v>326</v>
       </c>
       <c r="H398" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="J398" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="R398" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="S398" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
     </row>
     <row r="399" spans="2:19">
@@ -13940,10 +13961,10 @@
         <v>145</v>
       </c>
       <c r="J399" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="S399" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="400" spans="2:19">
@@ -13963,16 +13984,16 @@
         <v>128</v>
       </c>
       <c r="H400" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="J400" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="R400" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S400" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="401" spans="2:19">
@@ -13992,16 +14013,16 @@
         <v>320</v>
       </c>
       <c r="H401" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="J401" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="R401" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="S401" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="402" spans="2:19">
@@ -14024,276 +14045,16 @@
         <v>155</v>
       </c>
       <c r="J402" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="R402" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="S402" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008A7B740158B06348BBFDD0A82FAE521C" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="15f4007343d69c31faccb6c57ce3ea95">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45be6600-ce97-4f91-b2b5-90c5c801df6a" xmlns:ns3="4ff60255-49bc-4e52-8060-8afe9711eecb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="af64184185331e52028044e26cabcf7e" ns2:_="" ns3:_="">
-    <xsd:import namespace="45be6600-ce97-4f91-b2b5-90c5c801df6a"/>
-    <xsd:import namespace="4ff60255-49bc-4e52-8060-8afe9711eecb"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="45be6600-ce97-4f91-b2b5-90c5c801df6a" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="94b3629e-20aa-442c-aac2-3c67759175e0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4ff60255-49bc-4e52-8060-8afe9711eecb" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="22" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{6c69ecb4-97a0-434f-9afd-668c5bcfe455}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="4ff60255-49bc-4e52-8060-8afe9711eecb">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0131977B-CC45-41CF-98F0-542E360AA878}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EAD3A08-5E9B-459B-9278-C4E70340B1E8}"/>
 </file>